--- a/TestExcel/TestExcel.xlsx
+++ b/TestExcel/TestExcel.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestExcelSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Employee" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>FirstName1</t>
   </si>
@@ -85,6 +86,39 @@
   </si>
   <si>
     <t>female</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>emp1</t>
+  </si>
+  <si>
+    <t>emp2</t>
+  </si>
+  <si>
+    <t>emp3</t>
+  </si>
+  <si>
+    <t>emp4</t>
+  </si>
+  <si>
+    <t>emp5</t>
+  </si>
+  <si>
+    <t>105</t>
   </si>
 </sst>
 </file>
@@ -101,12 +135,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,8 +161,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -414,7 +455,7 @@
     <col min="1" max="1" customWidth="true" width="12.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -425,7 +466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
@@ -436,7 +477,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
@@ -444,7 +485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
@@ -452,7 +493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
@@ -460,7 +501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
@@ -468,7 +509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
@@ -476,7 +517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
@@ -484,7 +525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
@@ -492,12 +533,132 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="4.3828125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C2" s="0">
+        <v>23</v>
+      </c>
+      <c r="D2" s="0">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="0">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B3" s="0">
+        <v>101</v>
+      </c>
+      <c r="C3" s="0">
+        <v>24</v>
+      </c>
+      <c r="D3" s="0">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B4" s="0">
+        <v>102</v>
+      </c>
+      <c r="C4" s="0">
+        <v>35</v>
+      </c>
+      <c r="D4" s="0">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B5" s="0">
+        <v>103</v>
+      </c>
+      <c r="C5" s="0">
+        <v>28</v>
+      </c>
+      <c r="D5" s="0">
+        <v>4000</v>
+      </c>
+      <c r="E5" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B6" s="0">
+        <v>104</v>
+      </c>
+      <c r="C6" s="0">
+        <v>24</v>
+      </c>
+      <c r="D6" s="0">
+        <v>25000</v>
+      </c>
+      <c r="E6" s="0">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
